--- a/data/data_flip.xlsx
+++ b/data/data_flip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GonzaloGGC/projects/flip/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BD72D4E2-4007-5D44-8DCD-223F4630EBB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8D51C7B0-5811-7A48-BC29-4DC44E78A5F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="105" uniqueCount="57">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="276" uniqueCount="100">
   <si>
     <t>baby</t>
   </si>
@@ -36,9 +36,6 @@
     <t>familiar</t>
   </si>
   <si>
-    <t>unfamiliar</t>
-  </si>
-  <si>
     <t>baby15</t>
   </si>
   <si>
@@ -196,13 +193,145 @@
   </si>
   <si>
     <t>hpp</t>
+  </si>
+  <si>
+    <t>SS2F1.A</t>
+  </si>
+  <si>
+    <t>SS2F3.A</t>
+  </si>
+  <si>
+    <t>SS2F6.A</t>
+  </si>
+  <si>
+    <t>SS2F8.A</t>
+  </si>
+  <si>
+    <t>SS2M7.A</t>
+  </si>
+  <si>
+    <t>SS2M10.A</t>
+  </si>
+  <si>
+    <t>SS2M18.A</t>
+  </si>
+  <si>
+    <t>SS2F12.A</t>
+  </si>
+  <si>
+    <t>SS2M19.A</t>
+  </si>
+  <si>
+    <t>SS2F13.A</t>
+  </si>
+  <si>
+    <t>SS2F14.A</t>
+  </si>
+  <si>
+    <t>SS2F15.A</t>
+  </si>
+  <si>
+    <t>SS2M24.A</t>
+  </si>
+  <si>
+    <t>SS2M25.A</t>
+  </si>
+  <si>
+    <t>SS2F18.A</t>
+  </si>
+  <si>
+    <t>SS2M27.A</t>
+  </si>
+  <si>
+    <t>SS2M28.A</t>
+  </si>
+  <si>
+    <t>SS2M2.A</t>
+  </si>
+  <si>
+    <t>SS2M17.A</t>
+  </si>
+  <si>
+    <t>SS2F11.A</t>
+  </si>
+  <si>
+    <t>SS2M2.B</t>
+  </si>
+  <si>
+    <t>SS2F1.B</t>
+  </si>
+  <si>
+    <t>SS2F3.B</t>
+  </si>
+  <si>
+    <t>SS2M5.B</t>
+  </si>
+  <si>
+    <t>SS2M7.B</t>
+  </si>
+  <si>
+    <t>SS2M9.B</t>
+  </si>
+  <si>
+    <t>SS2F12.B</t>
+  </si>
+  <si>
+    <t>SS2F14.B</t>
+  </si>
+  <si>
+    <t>SS2F15.B</t>
+  </si>
+  <si>
+    <t>SS2F20.B</t>
+  </si>
+  <si>
+    <t>SS2F21.B</t>
+  </si>
+  <si>
+    <t>SS2F22.B</t>
+  </si>
+  <si>
+    <t>SS2F23.B</t>
+  </si>
+  <si>
+    <t>SS2F25.B</t>
+  </si>
+  <si>
+    <t>SS2M15.B</t>
+  </si>
+  <si>
+    <t>SS2M1.B</t>
+  </si>
+  <si>
+    <t>SS2F7.B</t>
+  </si>
+  <si>
+    <t>SS2M4.B</t>
+  </si>
+  <si>
+    <t>SS2M13.B</t>
+  </si>
+  <si>
+    <t>SS2F19.B</t>
+  </si>
+  <si>
+    <t>novel</t>
+  </si>
+  <si>
+    <t>saffran</t>
+  </si>
+  <si>
+    <t>santolin</t>
+  </si>
+  <si>
+    <t>study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,6 +462,19 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -679,8 +821,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,879 +1187,1835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7185.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5717.5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3963.33</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7730.33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3221</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3606</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5842.83</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6909</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3823.33</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3548.67</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3233.33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5900.67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3990.25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5276.25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9794.33</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9246.33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5418.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7200.5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9212.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13688.17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3677.67</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3126.33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5487.83</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4278</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9978.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12574.17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6400.83</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5990.33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5046</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4976.67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3295.67</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5736.33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5031.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9209.67</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5223.17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3526.83</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4039.33</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4202.83</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7439.83</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6834.83</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7692.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12255.67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4049</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4063.67</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5295.83</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5165.67</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4299.67</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4074</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8213.83</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6076.66</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4622</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6755.17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6541</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4770.83</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7654.67</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6785.17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7520.67</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5052.83</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3580.25</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4501.5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8974.83</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11885.67</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6477.67</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5708</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9755.17</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5585.33</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8838.67</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5154.67</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6388</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6548.5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5053</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3853.5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5755.17</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7750.83</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5321.17</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4085.33</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7073.83</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6306.33</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>6584.83</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8340.67</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>13596.67</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8770.67</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>16625.5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>15406.83</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9924.17</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5094.33</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4452.5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7180.33</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9547.33</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7556.67</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9747</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7256</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>9526.5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7345.33</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8689</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7587.33</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5616.33</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5303</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5160.83</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6029.5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8231.5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9483.5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>11133.5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9431.5</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D54" s="2">
+        <v>9047.5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5392.5</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D55" s="2">
+        <v>5070</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4053.5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7393</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9765</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5634</v>
+      </c>
+      <c r="E57" s="2">
+        <v>6546.5</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>9680</v>
+      </c>
+      <c r="E58" s="2">
+        <v>7405</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>11010</v>
+      </c>
+      <c r="E59" s="2">
+        <v>9173</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>8078.5</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3889</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4980</v>
+      </c>
+      <c r="E61" s="2">
+        <v>7354</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5420</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5339</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>9707</v>
+      </c>
+      <c r="E63" s="2">
+        <v>7675</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>7537.5</v>
+      </c>
+      <c r="E64" s="2">
+        <v>4530</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>5707.5</v>
+      </c>
+      <c r="E65" s="2">
+        <v>5630</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7505</v>
+      </c>
+      <c r="E66" s="2">
+        <v>7796.5</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>8417.5</v>
+      </c>
+      <c r="E67" s="2">
+        <v>7303.5</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>8960</v>
+      </c>
+      <c r="E68" s="2">
+        <v>10061.5</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4985</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6348.5</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>10391.5</v>
+      </c>
+      <c r="E70" s="2">
+        <v>7085</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3">
+        <v>6765</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7326.5</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>5697.5</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4590</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>7067</v>
+      </c>
+      <c r="E73" s="1">
+        <v>7583.5</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>8056.5</v>
+      </c>
+      <c r="E74" s="1">
+        <v>7275</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>9432.5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>9117</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>4634</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4178</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5957.5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>6416</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>7725</v>
+      </c>
+      <c r="E78" s="1">
+        <v>6292.5</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>10073.5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>9777</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>6853.5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>10391</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>11800</v>
+      </c>
+      <c r="E81" s="1">
+        <v>8537.5</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8320</v>
+      </c>
+      <c r="E82" s="1">
+        <v>7415</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>5276</v>
+      </c>
+      <c r="E83" s="1">
+        <v>6030</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>6991.5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>7017.5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>9338</v>
+      </c>
+      <c r="E85" s="1">
+        <v>8330</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5688.5</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4595</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>7185.5</v>
-      </c>
-      <c r="E2">
-        <v>5717.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>3963.33</v>
-      </c>
-      <c r="E3">
-        <v>7730.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="D87" s="1">
+        <v>5165</v>
+      </c>
+      <c r="E87" s="1">
+        <v>5928.5</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>6802.5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>7298.5</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>9695</v>
+      </c>
+      <c r="E89" s="1">
+        <v>8819</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>13156.5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>7003.5</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>3221</v>
-      </c>
-      <c r="E4">
-        <v>3606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>5842.83</v>
-      </c>
-      <c r="E5">
-        <v>6909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>3823.33</v>
-      </c>
-      <c r="E6">
-        <v>3548.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3233.33</v>
-      </c>
-      <c r="E7">
-        <v>5900.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3990.25</v>
-      </c>
-      <c r="E8">
-        <v>5276.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>9794.33</v>
-      </c>
-      <c r="E9">
-        <v>9246.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5418.5</v>
-      </c>
-      <c r="E10">
-        <v>7200.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>9212.5</v>
-      </c>
-      <c r="E11">
-        <v>13688.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3677.67</v>
-      </c>
-      <c r="E12">
-        <v>3126.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>5487.83</v>
-      </c>
-      <c r="E13">
-        <v>4278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>9978.5</v>
-      </c>
-      <c r="E14">
-        <v>12574.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>6400.83</v>
-      </c>
-      <c r="E15">
-        <v>5990.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>5046</v>
-      </c>
-      <c r="E16">
-        <v>4976.67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3295.67</v>
-      </c>
-      <c r="E17">
-        <v>5736.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5031.5</v>
-      </c>
-      <c r="E18">
-        <v>9209.67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>5223.17</v>
-      </c>
-      <c r="E19">
-        <v>3526.83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>4039.33</v>
-      </c>
-      <c r="E20">
-        <v>4202.83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>7439.83</v>
-      </c>
-      <c r="E21">
-        <v>6834.83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>7692.5</v>
-      </c>
-      <c r="E22">
-        <v>12255.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>4049</v>
-      </c>
-      <c r="E23">
-        <v>4063.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>5295.83</v>
-      </c>
-      <c r="E24">
-        <v>5165.67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>4299.67</v>
-      </c>
-      <c r="E25">
-        <v>4074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>8213.83</v>
-      </c>
-      <c r="E26">
-        <v>6076.66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>4622</v>
-      </c>
-      <c r="E27">
-        <v>6755.17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>6541</v>
-      </c>
-      <c r="E28">
-        <v>4770.83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>7654.67</v>
-      </c>
-      <c r="E29">
-        <v>6785.17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>7520.67</v>
-      </c>
-      <c r="E30">
-        <v>5052.83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>3580.25</v>
-      </c>
-      <c r="E31">
-        <v>4501.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>8974.83</v>
-      </c>
-      <c r="E32">
-        <v>11885.67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>6477.67</v>
-      </c>
-      <c r="E33">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>9755.17</v>
-      </c>
-      <c r="E34">
-        <v>5585.33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>8838.67</v>
-      </c>
-      <c r="E35">
-        <v>5154.67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>6388</v>
-      </c>
-      <c r="E36">
-        <v>6548.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>5053</v>
-      </c>
-      <c r="E37">
-        <v>3853.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>5755.17</v>
-      </c>
-      <c r="E38">
-        <v>7750.83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>5321.17</v>
-      </c>
-      <c r="E39">
-        <v>4085.33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>7073.83</v>
-      </c>
-      <c r="E40">
-        <v>6306.33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>6584.83</v>
-      </c>
-      <c r="E41">
-        <v>8340.67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>13596.67</v>
-      </c>
-      <c r="E42">
-        <v>8770.67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>16625.5</v>
-      </c>
-      <c r="E43">
-        <v>15406.83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>9924.17</v>
-      </c>
-      <c r="E44">
-        <v>5094.33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>4452.5</v>
-      </c>
-      <c r="E45">
-        <v>7180.33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>9547.33</v>
-      </c>
-      <c r="E46">
-        <v>7556.67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>9747</v>
-      </c>
-      <c r="E47">
-        <v>7256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>9526.5</v>
-      </c>
-      <c r="E48">
-        <v>7345.33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>8689</v>
-      </c>
-      <c r="E49">
-        <v>7587.33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>5616.33</v>
-      </c>
-      <c r="E50">
-        <v>5303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>5160.83</v>
-      </c>
-      <c r="E51">
-        <v>6029.5</v>
+      <c r="D91" s="1">
+        <v>8667.5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>7565</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
